--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="156">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -370,10 +370,13 @@
     <t>Проверка отображения блока "Заявки" на главной странице.</t>
   </si>
   <si>
-    <t xml:space="preserve"> In progress</t>
+    <t>Переход к странице с цитатами с помощью кнопки из AppBar</t>
   </si>
   <si>
     <t>Взврат на предыдущее страницу с помощью кнопки возврата со страницы с информацией о приложении.</t>
+  </si>
+  <si>
+    <t>Изменение ориентации экрана при запущенном приложении.</t>
   </si>
   <si>
     <t>Выход из аккаунта с помощью кнопки в AppBar.</t>
@@ -382,13 +385,25 @@
     <t>Навигация по приложению с использованием крупного шрифта</t>
   </si>
   <si>
-    <t>Запуск приложения с первичной авторизацией.</t>
+    <t>Запуск приложения с авторизацией.</t>
+  </si>
+  <si>
+    <t>149, 150, 151, 152, 153, 154</t>
+  </si>
+  <si>
+    <t>Изменение шрифта системы при запущенном приложении.</t>
   </si>
   <si>
     <t>Навигация по приложению при Dark mode</t>
   </si>
   <si>
+    <t xml:space="preserve"> In progress</t>
+  </si>
+  <si>
     <t>Навигация по приложению с измененным языком системы</t>
+  </si>
+  <si>
+    <t>Запуск приложения с первичной авторизацией.</t>
   </si>
   <si>
     <t>Жесты в приложении</t>
@@ -4871,9 +4886,11 @@
         <v>7</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E115" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E115" s="8">
+        <v>134.0</v>
+      </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -4904,9 +4921,11 @@
         <v>7</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E116" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E116" s="8">
+        <v>135.0</v>
+      </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -4937,9 +4956,11 @@
         <v>7</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E117" s="8">
+        <v>136.0</v>
+      </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -4970,9 +4991,11 @@
         <v>7</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E118" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E118" s="8">
+        <v>137.0</v>
+      </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -5003,9 +5026,11 @@
         <v>7</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E119" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E119" s="8">
+        <v>138.0</v>
+      </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -5036,9 +5061,11 @@
         <v>7</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E120" s="8">
+        <v>139.0</v>
+      </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -5063,15 +5090,17 @@
     <row r="121">
       <c r="A121" s="9"/>
       <c r="B121" s="8" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E121" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E121" s="8">
+        <v>140.0</v>
+      </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -5102,9 +5131,11 @@
         <v>7</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E122" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E122" s="8">
+        <v>141.0</v>
+      </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -5135,9 +5166,11 @@
         <v>7</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E123" s="8">
+        <v>142.0</v>
+      </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -5168,9 +5201,11 @@
         <v>7</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E124" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E124" s="8">
+        <v>143.0</v>
+      </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -5201,9 +5236,11 @@
         <v>7</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E125" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E125" s="8">
+        <v>144.0</v>
+      </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -5234,9 +5271,11 @@
         <v>7</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E126" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E126" s="8">
+        <v>145.0</v>
+      </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -5261,15 +5300,17 @@
     <row r="127">
       <c r="A127" s="9"/>
       <c r="B127" s="8" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E127" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E127" s="8">
+        <v>146.0</v>
+      </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -5292,17 +5333,19 @@
       <c r="Y127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="9"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="8" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E128" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E128" s="8">
+        <v>147.0</v>
+      </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -5325,17 +5368,21 @@
       <c r="Y128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="11"/>
+      <c r="A129" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="B129" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E129" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E129" s="8">
+        <v>148.0</v>
+      </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -5358,19 +5405,19 @@
       <c r="Y129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="A130" s="9"/>
       <c r="B130" s="8" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E130" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -5395,15 +5442,17 @@
     <row r="131">
       <c r="A131" s="9"/>
       <c r="B131" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E131" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E131" s="8">
+        <v>155.0</v>
+      </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -5428,15 +5477,17 @@
     <row r="132">
       <c r="A132" s="9"/>
       <c r="B132" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E132" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E132" s="8">
+        <v>156.0</v>
+      </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -5461,15 +5512,17 @@
     <row r="133">
       <c r="A133" s="9"/>
       <c r="B133" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E133" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E133" s="8">
+        <v>157.0</v>
+      </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -5494,15 +5547,17 @@
     <row r="134">
       <c r="A134" s="9"/>
       <c r="B134" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E134" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E134" s="8">
+        <v>158.0</v>
+      </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -5527,15 +5582,17 @@
     <row r="135">
       <c r="A135" s="9"/>
       <c r="B135" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E135" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E135" s="8">
+        <v>159.0</v>
+      </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -5560,15 +5617,17 @@
     <row r="136">
       <c r="A136" s="9"/>
       <c r="B136" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E136" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E136" s="8">
+        <v>160.0</v>
+      </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -5593,15 +5652,17 @@
     <row r="137">
       <c r="A137" s="9"/>
       <c r="B137" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E137" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E137" s="8">
+        <v>161.0</v>
+      </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -5626,15 +5687,17 @@
     <row r="138">
       <c r="A138" s="9"/>
       <c r="B138" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E138" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E138" s="8">
+        <v>162.0</v>
+      </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -5659,15 +5722,17 @@
     <row r="139">
       <c r="A139" s="9"/>
       <c r="B139" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E139" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E139" s="8">
+        <v>163.0</v>
+      </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -5692,15 +5757,17 @@
     <row r="140">
       <c r="A140" s="9"/>
       <c r="B140" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E140" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E140" s="8">
+        <v>164.0</v>
+      </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -5725,15 +5792,17 @@
     <row r="141">
       <c r="A141" s="9"/>
       <c r="B141" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E141" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E141" s="8">
+        <v>165.0</v>
+      </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -5758,15 +5827,17 @@
     <row r="142">
       <c r="A142" s="9"/>
       <c r="B142" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E142" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E142" s="8">
+        <v>166.0</v>
+      </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -5791,15 +5862,17 @@
     <row r="143">
       <c r="A143" s="9"/>
       <c r="B143" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E143" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E143" s="8">
+        <v>167.0</v>
+      </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -5824,15 +5897,17 @@
     <row r="144">
       <c r="A144" s="9"/>
       <c r="B144" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E144" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E144" s="8">
+        <v>168.0</v>
+      </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -5857,15 +5932,17 @@
     <row r="145">
       <c r="A145" s="9"/>
       <c r="B145" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E145" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E145" s="8">
+        <v>169.0</v>
+      </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -5890,15 +5967,17 @@
     <row r="146">
       <c r="A146" s="9"/>
       <c r="B146" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E146" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E146" s="8">
+        <v>170.0</v>
+      </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -5923,15 +6002,17 @@
     <row r="147">
       <c r="A147" s="9"/>
       <c r="B147" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E147" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E147" s="8">
+        <v>171.0</v>
+      </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -5956,15 +6037,17 @@
     <row r="148">
       <c r="A148" s="9"/>
       <c r="B148" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E148" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E148" s="8">
+        <v>172.0</v>
+      </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -5989,15 +6072,17 @@
     <row r="149">
       <c r="A149" s="9"/>
       <c r="B149" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E149" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E149" s="8">
+        <v>173.0</v>
+      </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -6022,15 +6107,17 @@
     <row r="150">
       <c r="A150" s="9"/>
       <c r="B150" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E150" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E150" s="8">
+        <v>174.0</v>
+      </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -6055,15 +6142,17 @@
     <row r="151">
       <c r="A151" s="9"/>
       <c r="B151" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E151" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E151" s="8">
+        <v>175.0</v>
+      </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -6088,15 +6177,17 @@
     <row r="152">
       <c r="A152" s="9"/>
       <c r="B152" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E152" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E152" s="8">
+        <v>176.0</v>
+      </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -6121,15 +6212,17 @@
     <row r="153">
       <c r="A153" s="9"/>
       <c r="B153" s="8" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E153" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E153" s="8">
+        <v>177.0</v>
+      </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -6154,15 +6247,17 @@
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E154" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E154" s="8">
+        <v>178.0</v>
+      </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -6185,17 +6280,19 @@
       <c r="Y154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="9"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="8" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E155" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E155" s="8">
+        <v>179.0</v>
+      </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -6218,15 +6315,17 @@
       <c r="Y155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="9"/>
+      <c r="A156" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B156" s="8" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E156" s="16"/>
       <c r="F156" s="6"/>
@@ -6251,15 +6350,15 @@
       <c r="Y156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="11"/>
+      <c r="A157" s="9"/>
       <c r="B157" s="8" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E157" s="16"/>
       <c r="F157" s="6"/>
@@ -6284,17 +6383,15 @@
       <c r="Y157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="A158" s="9"/>
       <c r="B158" s="8" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E158" s="16"/>
       <c r="F158" s="6"/>
@@ -6321,13 +6418,13 @@
     <row r="159">
       <c r="A159" s="9"/>
       <c r="B159" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E159" s="16"/>
       <c r="F159" s="6"/>
@@ -6354,13 +6451,13 @@
     <row r="160">
       <c r="A160" s="9"/>
       <c r="B160" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E160" s="16"/>
       <c r="F160" s="6"/>
@@ -6387,13 +6484,13 @@
     <row r="161">
       <c r="A161" s="9"/>
       <c r="B161" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E161" s="16"/>
       <c r="F161" s="6"/>
@@ -6420,13 +6517,13 @@
     <row r="162">
       <c r="A162" s="9"/>
       <c r="B162" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E162" s="16"/>
       <c r="F162" s="6"/>
@@ -6453,13 +6550,13 @@
     <row r="163">
       <c r="A163" s="9"/>
       <c r="B163" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="6"/>
@@ -6486,13 +6583,13 @@
     <row r="164">
       <c r="A164" s="9"/>
       <c r="B164" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E164" s="16"/>
       <c r="F164" s="6"/>
@@ -6519,13 +6616,13 @@
     <row r="165">
       <c r="A165" s="9"/>
       <c r="B165" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E165" s="16"/>
       <c r="F165" s="6"/>
@@ -6552,13 +6649,13 @@
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E166" s="16"/>
       <c r="F166" s="6"/>
@@ -6585,13 +6682,13 @@
     <row r="167">
       <c r="A167" s="9"/>
       <c r="B167" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E167" s="16"/>
       <c r="F167" s="6"/>
@@ -6618,13 +6715,13 @@
     <row r="168">
       <c r="A168" s="9"/>
       <c r="B168" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E168" s="16"/>
       <c r="F168" s="6"/>
@@ -6651,13 +6748,13 @@
     <row r="169">
       <c r="A169" s="9"/>
       <c r="B169" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E169" s="16"/>
       <c r="F169" s="6"/>
@@ -6684,13 +6781,13 @@
     <row r="170">
       <c r="A170" s="9"/>
       <c r="B170" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E170" s="16"/>
       <c r="F170" s="6"/>
@@ -6717,13 +6814,13 @@
     <row r="171">
       <c r="A171" s="9"/>
       <c r="B171" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E171" s="16"/>
       <c r="F171" s="6"/>
@@ -6750,13 +6847,13 @@
     <row r="172">
       <c r="A172" s="9"/>
       <c r="B172" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E172" s="16"/>
       <c r="F172" s="6"/>
@@ -6783,13 +6880,13 @@
     <row r="173">
       <c r="A173" s="9"/>
       <c r="B173" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E173" s="16"/>
       <c r="F173" s="6"/>
@@ -6816,13 +6913,13 @@
     <row r="174">
       <c r="A174" s="9"/>
       <c r="B174" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E174" s="16"/>
       <c r="F174" s="6"/>
@@ -6849,13 +6946,13 @@
     <row r="175">
       <c r="A175" s="9"/>
       <c r="B175" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E175" s="16"/>
       <c r="F175" s="6"/>
@@ -6882,13 +6979,13 @@
     <row r="176">
       <c r="A176" s="9"/>
       <c r="B176" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E176" s="16"/>
       <c r="F176" s="6"/>
@@ -6915,13 +7012,13 @@
     <row r="177">
       <c r="A177" s="9"/>
       <c r="B177" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E177" s="16"/>
       <c r="F177" s="6"/>
@@ -6948,13 +7045,13 @@
     <row r="178">
       <c r="A178" s="9"/>
       <c r="B178" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E178" s="16"/>
       <c r="F178" s="6"/>
@@ -6981,13 +7078,13 @@
     <row r="179">
       <c r="A179" s="9"/>
       <c r="B179" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E179" s="16"/>
       <c r="F179" s="6"/>
@@ -7014,13 +7111,13 @@
     <row r="180">
       <c r="A180" s="9"/>
       <c r="B180" s="8" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E180" s="16"/>
       <c r="F180" s="6"/>
@@ -7047,13 +7144,13 @@
     <row r="181">
       <c r="A181" s="9"/>
       <c r="B181" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="6"/>
@@ -7080,13 +7177,13 @@
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="8" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="6"/>
@@ -7111,15 +7208,15 @@
       <c r="Y182" s="6"/>
     </row>
     <row r="183">
-      <c r="A183" s="9"/>
+      <c r="A183" s="11"/>
       <c r="B183" s="8" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E183" s="16"/>
       <c r="F183" s="6"/>
@@ -7144,15 +7241,17 @@
       <c r="Y183" s="6"/>
     </row>
     <row r="184">
-      <c r="A184" s="9"/>
+      <c r="A184" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="B184" s="8" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="6"/>
@@ -7177,15 +7276,15 @@
       <c r="Y184" s="6"/>
     </row>
     <row r="185">
-      <c r="A185" s="11"/>
+      <c r="A185" s="9"/>
       <c r="B185" s="8" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E185" s="16"/>
       <c r="F185" s="6"/>
@@ -7210,17 +7309,15 @@
       <c r="Y185" s="6"/>
     </row>
     <row r="186">
-      <c r="A186" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="A186" s="9"/>
       <c r="B186" s="8" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E186" s="16"/>
       <c r="F186" s="6"/>
@@ -7247,13 +7344,13 @@
     <row r="187">
       <c r="A187" s="9"/>
       <c r="B187" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E187" s="16"/>
       <c r="F187" s="6"/>
@@ -7280,13 +7377,13 @@
     <row r="188">
       <c r="A188" s="9"/>
       <c r="B188" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E188" s="16"/>
       <c r="F188" s="6"/>
@@ -7313,13 +7410,13 @@
     <row r="189">
       <c r="A189" s="9"/>
       <c r="B189" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E189" s="16"/>
       <c r="F189" s="6"/>
@@ -7346,13 +7443,13 @@
     <row r="190">
       <c r="A190" s="9"/>
       <c r="B190" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E190" s="16"/>
       <c r="F190" s="6"/>
@@ -7379,13 +7476,13 @@
     <row r="191">
       <c r="A191" s="9"/>
       <c r="B191" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E191" s="16"/>
       <c r="F191" s="6"/>
@@ -7412,13 +7509,13 @@
     <row r="192">
       <c r="A192" s="9"/>
       <c r="B192" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E192" s="16"/>
       <c r="F192" s="6"/>
@@ -7445,13 +7542,13 @@
     <row r="193">
       <c r="A193" s="9"/>
       <c r="B193" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E193" s="16"/>
       <c r="F193" s="6"/>
@@ -7478,13 +7575,13 @@
     <row r="194">
       <c r="A194" s="9"/>
       <c r="B194" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E194" s="16"/>
       <c r="F194" s="6"/>
@@ -7511,13 +7608,13 @@
     <row r="195">
       <c r="A195" s="9"/>
       <c r="B195" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E195" s="16"/>
       <c r="F195" s="6"/>
@@ -7544,13 +7641,13 @@
     <row r="196">
       <c r="A196" s="9"/>
       <c r="B196" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E196" s="16"/>
       <c r="F196" s="6"/>
@@ -7577,13 +7674,13 @@
     <row r="197">
       <c r="A197" s="9"/>
       <c r="B197" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E197" s="16"/>
       <c r="F197" s="6"/>
@@ -7610,13 +7707,13 @@
     <row r="198">
       <c r="A198" s="9"/>
       <c r="B198" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E198" s="16"/>
       <c r="F198" s="6"/>
@@ -7643,13 +7740,13 @@
     <row r="199">
       <c r="A199" s="9"/>
       <c r="B199" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E199" s="16"/>
       <c r="F199" s="6"/>
@@ -7676,13 +7773,13 @@
     <row r="200">
       <c r="A200" s="9"/>
       <c r="B200" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E200" s="16"/>
       <c r="F200" s="6"/>
@@ -7709,13 +7806,13 @@
     <row r="201">
       <c r="A201" s="9"/>
       <c r="B201" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E201" s="16"/>
       <c r="F201" s="6"/>
@@ -7742,13 +7839,13 @@
     <row r="202">
       <c r="A202" s="9"/>
       <c r="B202" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E202" s="16"/>
       <c r="F202" s="6"/>
@@ -7775,13 +7872,13 @@
     <row r="203">
       <c r="A203" s="9"/>
       <c r="B203" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E203" s="16"/>
       <c r="F203" s="6"/>
@@ -7808,13 +7905,13 @@
     <row r="204">
       <c r="A204" s="9"/>
       <c r="B204" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E204" s="16"/>
       <c r="F204" s="6"/>
@@ -7841,13 +7938,13 @@
     <row r="205">
       <c r="A205" s="9"/>
       <c r="B205" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E205" s="16"/>
       <c r="F205" s="6"/>
@@ -7874,13 +7971,13 @@
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E206" s="16"/>
       <c r="F206" s="6"/>
@@ -7907,13 +8004,13 @@
     <row r="207">
       <c r="A207" s="9"/>
       <c r="B207" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E207" s="16"/>
       <c r="F207" s="6"/>
@@ -7940,13 +8037,13 @@
     <row r="208">
       <c r="A208" s="9"/>
       <c r="B208" s="8" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E208" s="16"/>
       <c r="F208" s="6"/>
@@ -7973,13 +8070,13 @@
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E209" s="16"/>
       <c r="F209" s="6"/>
@@ -8006,13 +8103,13 @@
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="8" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E210" s="16"/>
       <c r="F210" s="6"/>
@@ -8037,15 +8134,15 @@
       <c r="Y210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="9"/>
+      <c r="A211" s="11"/>
       <c r="B211" s="8" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E211" s="16"/>
       <c r="F211" s="6"/>
@@ -8070,15 +8167,17 @@
       <c r="Y211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="9"/>
+      <c r="A212" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="B212" s="8" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E212" s="16"/>
       <c r="F212" s="6"/>
@@ -8103,15 +8202,15 @@
       <c r="Y212" s="6"/>
     </row>
     <row r="213">
-      <c r="A213" s="11"/>
+      <c r="A213" s="9"/>
       <c r="B213" s="8" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E213" s="16"/>
       <c r="F213" s="6"/>
@@ -8136,17 +8235,15 @@
       <c r="Y213" s="6"/>
     </row>
     <row r="214">
-      <c r="A214" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="A214" s="11"/>
       <c r="B214" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E214" s="16"/>
       <c r="F214" s="6"/>
@@ -8171,15 +8268,17 @@
       <c r="Y214" s="6"/>
     </row>
     <row r="215">
-      <c r="A215" s="9"/>
+      <c r="A215" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="B215" s="8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E215" s="16"/>
       <c r="F215" s="6"/>
@@ -8204,15 +8303,15 @@
       <c r="Y215" s="6"/>
     </row>
     <row r="216">
-      <c r="A216" s="11"/>
+      <c r="A216" s="9"/>
       <c r="B216" s="8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E216" s="16"/>
       <c r="F216" s="6"/>
@@ -8237,17 +8336,15 @@
       <c r="Y216" s="6"/>
     </row>
     <row r="217">
-      <c r="A217" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="A217" s="9"/>
       <c r="B217" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E217" s="16"/>
       <c r="F217" s="6"/>
@@ -8274,13 +8371,13 @@
     <row r="218">
       <c r="A218" s="9"/>
       <c r="B218" s="8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E218" s="16"/>
       <c r="F218" s="6"/>
@@ -8307,13 +8404,13 @@
     <row r="219">
       <c r="A219" s="9"/>
       <c r="B219" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E219" s="16"/>
       <c r="F219" s="6"/>
@@ -8340,13 +8437,13 @@
     <row r="220">
       <c r="A220" s="9"/>
       <c r="B220" s="8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E220" s="16"/>
       <c r="F220" s="6"/>
@@ -8371,15 +8468,15 @@
       <c r="Y220" s="6"/>
     </row>
     <row r="221">
-      <c r="A221" s="9"/>
+      <c r="A221" s="11"/>
       <c r="B221" s="8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E221" s="16"/>
       <c r="F221" s="6"/>
@@ -8404,15 +8501,17 @@
       <c r="Y221" s="6"/>
     </row>
     <row r="222">
-      <c r="A222" s="9"/>
+      <c r="A222" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="B222" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E222" s="16"/>
       <c r="F222" s="6"/>
@@ -8437,15 +8536,15 @@
       <c r="Y222" s="6"/>
     </row>
     <row r="223">
-      <c r="A223" s="11"/>
+      <c r="A223" s="9"/>
       <c r="B223" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E223" s="16"/>
       <c r="F223" s="6"/>
@@ -8470,17 +8569,15 @@
       <c r="Y223" s="6"/>
     </row>
     <row r="224">
-      <c r="A224" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="A224" s="9"/>
       <c r="B224" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E224" s="16"/>
       <c r="F224" s="6"/>
@@ -8505,15 +8602,15 @@
       <c r="Y224" s="6"/>
     </row>
     <row r="225">
-      <c r="A225" s="9"/>
+      <c r="A225" s="11"/>
       <c r="B225" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E225" s="16"/>
       <c r="F225" s="6"/>
@@ -8538,15 +8635,17 @@
       <c r="Y225" s="6"/>
     </row>
     <row r="226">
-      <c r="A226" s="9"/>
-      <c r="B226" s="8" t="s">
-        <v>141</v>
+      <c r="A226" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E226" s="16"/>
       <c r="F226" s="6"/>
@@ -8571,15 +8670,15 @@
       <c r="Y226" s="6"/>
     </row>
     <row r="227">
-      <c r="A227" s="11"/>
-      <c r="B227" s="8" t="s">
-        <v>142</v>
+      <c r="A227" s="9"/>
+      <c r="B227" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E227" s="16"/>
       <c r="F227" s="6"/>
@@ -8604,17 +8703,15 @@
       <c r="Y227" s="6"/>
     </row>
     <row r="228">
-      <c r="A228" s="17" t="s">
-        <v>143</v>
-      </c>
+      <c r="A228" s="9"/>
       <c r="B228" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E228" s="16"/>
       <c r="F228" s="6"/>
@@ -8641,13 +8738,13 @@
     <row r="229">
       <c r="A229" s="9"/>
       <c r="B229" s="13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E229" s="16"/>
       <c r="F229" s="6"/>
@@ -8672,15 +8769,15 @@
       <c r="Y229" s="6"/>
     </row>
     <row r="230">
-      <c r="A230" s="9"/>
+      <c r="A230" s="11"/>
       <c r="B230" s="13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E230" s="16"/>
       <c r="F230" s="6"/>
@@ -8705,15 +8802,17 @@
       <c r="Y230" s="6"/>
     </row>
     <row r="231">
-      <c r="A231" s="9"/>
+      <c r="A231" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="B231" s="13" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E231" s="16"/>
       <c r="F231" s="6"/>
@@ -8738,17 +8837,11 @@
       <c r="Y231" s="6"/>
     </row>
     <row r="232">
-      <c r="A232" s="11"/>
-      <c r="B232" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E232" s="16"/>
+      <c r="A232" s="12"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
@@ -8771,19 +8864,11 @@
       <c r="Y232" s="6"/>
     </row>
     <row r="233">
-      <c r="A233" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E233" s="16"/>
+      <c r="A233" s="12"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
@@ -8833,7 +8918,7 @@
       <c r="Y234" s="6"/>
     </row>
     <row r="235">
-      <c r="A235" s="12"/>
+      <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -8860,7 +8945,7 @@
       <c r="Y235" s="6"/>
     </row>
     <row r="236">
-      <c r="A236" s="12"/>
+      <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -30540,82 +30625,28 @@
       <c r="X1038" s="6"/>
       <c r="Y1038" s="6"/>
     </row>
-    <row r="1039">
-      <c r="A1039" s="6"/>
-      <c r="B1039" s="6"/>
-      <c r="C1039" s="6"/>
-      <c r="D1039" s="6"/>
-      <c r="E1039" s="6"/>
-      <c r="F1039" s="6"/>
-      <c r="G1039" s="6"/>
-      <c r="H1039" s="6"/>
-      <c r="I1039" s="6"/>
-      <c r="J1039" s="6"/>
-      <c r="K1039" s="6"/>
-      <c r="L1039" s="6"/>
-      <c r="M1039" s="6"/>
-      <c r="N1039" s="6"/>
-      <c r="O1039" s="6"/>
-      <c r="P1039" s="6"/>
-      <c r="Q1039" s="6"/>
-      <c r="R1039" s="6"/>
-      <c r="S1039" s="6"/>
-      <c r="T1039" s="6"/>
-      <c r="U1039" s="6"/>
-      <c r="V1039" s="6"/>
-      <c r="W1039" s="6"/>
-      <c r="X1039" s="6"/>
-      <c r="Y1039" s="6"/>
-    </row>
-    <row r="1040">
-      <c r="A1040" s="6"/>
-      <c r="B1040" s="6"/>
-      <c r="C1040" s="6"/>
-      <c r="D1040" s="6"/>
-      <c r="E1040" s="6"/>
-      <c r="F1040" s="6"/>
-      <c r="G1040" s="6"/>
-      <c r="H1040" s="6"/>
-      <c r="I1040" s="6"/>
-      <c r="J1040" s="6"/>
-      <c r="K1040" s="6"/>
-      <c r="L1040" s="6"/>
-      <c r="M1040" s="6"/>
-      <c r="N1040" s="6"/>
-      <c r="O1040" s="6"/>
-      <c r="P1040" s="6"/>
-      <c r="Q1040" s="6"/>
-      <c r="R1040" s="6"/>
-      <c r="S1040" s="6"/>
-      <c r="T1040" s="6"/>
-      <c r="U1040" s="6"/>
-      <c r="V1040" s="6"/>
-      <c r="W1040" s="6"/>
-      <c r="X1040" s="6"/>
-      <c r="Y1040" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A130:A157"/>
-    <mergeCell ref="A158:A185"/>
-    <mergeCell ref="A186:A213"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A217:A223"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A129:A155"/>
+    <mergeCell ref="A156:A183"/>
+    <mergeCell ref="A184:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="A226:A230"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A34"/>
     <mergeCell ref="A35:A51"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A69:A82"/>
     <mergeCell ref="A83:A98"/>
-    <mergeCell ref="A99:A129"/>
+    <mergeCell ref="A99:A128"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C233">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C231">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D233">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D231">
       <formula1>"Success,Failure, In progress"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="181">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -316,6 +316,9 @@
     <t>Добавление новой заявки с большим количеством символов в поле "Тема".</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>Добавление новой заявки с использованием спецсимволов в поле "Тема".</t>
   </si>
   <si>
@@ -391,25 +394,97 @@
     <t>149, 150, 151, 152, 153, 154</t>
   </si>
   <si>
+    <t>218, 219, 220</t>
+  </si>
+  <si>
     <t>Изменение шрифта системы при запущенном приложении.</t>
   </si>
   <si>
     <t>Навигация по приложению при Dark mode</t>
   </si>
   <si>
-    <t xml:space="preserve"> In progress</t>
+    <t>182, 183, 184, 185, 186</t>
+  </si>
+  <si>
+    <t>195, 196, 197</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t>Навигация по приложению с измененным языком системы</t>
   </si>
   <si>
-    <t>Запуск приложения с первичной авторизацией.</t>
+    <t>Проверка отображения заголовка главной страницы в AppBar.</t>
+  </si>
+  <si>
+    <t>223, 225, 226, 227, 228</t>
+  </si>
+  <si>
+    <t>Проверка отображения блока "News" на главной странице приложения.</t>
+  </si>
+  <si>
+    <t>Отображение элементов управления тулбара на странице "News".</t>
+  </si>
+  <si>
+    <t>230, 231, 232</t>
+  </si>
+  <si>
+    <t>Проверка отображения списка из трех последних активных новостей в блоке "News" на главной странице.</t>
+  </si>
+  <si>
+    <t>Переход на страницу "News" по кнопке "ALL NEWS" с главной страницы.</t>
+  </si>
+  <si>
+    <t>Переход на страницу "News" по кнопке "News" всплывающего меню с главной страницы</t>
+  </si>
+  <si>
+    <t>Переход на главную страницу по кнопке "Main" всплывающего меню со страницы "News"</t>
+  </si>
+  <si>
+    <t>Проверка отображения блока "Claims" на главной странице приложения.</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Claims" по кнопке "ALL CLAIMS" с главной страницы.</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Claims" по кнопке "Claims" всплывающего меню с главной страницы</t>
+  </si>
+  <si>
+    <t>Переход на страницу с информацией о приложении по кнопке "About" всплывающего меню с главной страницы</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Announcement".</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Birthday".</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Salary".</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Trade union".</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Holiday".</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Massage".</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Gratitude".</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру "Help is needed".</t>
   </si>
   <si>
     <t>Жесты в приложении</t>
   </si>
   <si>
     <t>Использование жеста для обновления страницы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In progress</t>
   </si>
   <si>
     <t>Использование жеста "назад" для возврата к предыдыдущей странице.</t>
@@ -3831,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>43</v>
@@ -3863,7 +3938,7 @@
     <row r="86">
       <c r="A86" s="9"/>
       <c r="B86" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>7</v>
@@ -3898,7 +3973,7 @@
     <row r="87">
       <c r="A87" s="9"/>
       <c r="B87" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>7</v>
@@ -3933,10 +4008,10 @@
     <row r="88">
       <c r="A88" s="9"/>
       <c r="B88" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>43</v>
@@ -3968,10 +4043,10 @@
     <row r="89">
       <c r="A89" s="9"/>
       <c r="B89" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>43</v>
@@ -4003,7 +4078,7 @@
     <row r="90">
       <c r="A90" s="9"/>
       <c r="B90" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>7</v>
@@ -4038,7 +4113,7 @@
     <row r="91">
       <c r="A91" s="9"/>
       <c r="B91" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>7</v>
@@ -4073,7 +4148,7 @@
     <row r="92">
       <c r="A92" s="9"/>
       <c r="B92" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>7</v>
@@ -4108,7 +4183,7 @@
     <row r="93">
       <c r="A93" s="9"/>
       <c r="B93" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>7</v>
@@ -4143,7 +4218,7 @@
     <row r="94">
       <c r="A94" s="9"/>
       <c r="B94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>7</v>
@@ -4178,7 +4253,7 @@
     <row r="95">
       <c r="A95" s="9"/>
       <c r="B95" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>7</v>
@@ -4213,7 +4288,7 @@
     <row r="96">
       <c r="A96" s="9"/>
       <c r="B96" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>7</v>
@@ -4248,7 +4323,7 @@
     <row r="97">
       <c r="A97" s="9"/>
       <c r="B97" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>7</v>
@@ -4283,7 +4358,7 @@
     <row r="98">
       <c r="A98" s="11"/>
       <c r="B98" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>7</v>
@@ -4317,7 +4392,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>12</v>
@@ -4364,7 +4439,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -4399,7 +4474,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -4714,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -4775,7 +4850,7 @@
     <row r="112">
       <c r="A112" s="9"/>
       <c r="B112" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>7</v>
@@ -5090,7 +5165,7 @@
     <row r="121">
       <c r="A121" s="9"/>
       <c r="B121" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>7</v>
@@ -5265,7 +5340,7 @@
     <row r="126">
       <c r="A126" s="9"/>
       <c r="B126" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>7</v>
@@ -5300,7 +5375,7 @@
     <row r="127">
       <c r="A127" s="9"/>
       <c r="B127" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>7</v>
@@ -5335,7 +5410,7 @@
     <row r="128">
       <c r="A128" s="11"/>
       <c r="B128" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>7</v>
@@ -5369,10 +5444,10 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>7</v>
@@ -5416,7 +5491,7 @@
         <v>8</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -5483,7 +5558,7 @@
         <v>7</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E132" s="8">
         <v>156.0</v>
@@ -5722,7 +5797,7 @@
     <row r="139">
       <c r="A139" s="9"/>
       <c r="B139" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>7</v>
@@ -5730,8 +5805,8 @@
       <c r="D139" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="8">
-        <v>163.0</v>
+      <c r="E139" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -5757,16 +5832,16 @@
     <row r="140">
       <c r="A140" s="9"/>
       <c r="B140" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E140" s="8">
-        <v>164.0</v>
+        <v>163.0</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -5792,16 +5867,16 @@
     <row r="141">
       <c r="A141" s="9"/>
       <c r="B141" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E141" s="8">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -5827,7 +5902,7 @@
     <row r="142">
       <c r="A142" s="9"/>
       <c r="B142" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>7</v>
@@ -5836,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="E142" s="8">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -5862,7 +5937,7 @@
     <row r="143">
       <c r="A143" s="9"/>
       <c r="B143" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>7</v>
@@ -5871,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="E143" s="8">
-        <v>167.0</v>
+        <v>166.0</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -5897,7 +5972,7 @@
     <row r="144">
       <c r="A144" s="9"/>
       <c r="B144" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>7</v>
@@ -5906,7 +5981,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="8">
-        <v>168.0</v>
+        <v>167.0</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -5932,7 +6007,7 @@
     <row r="145">
       <c r="A145" s="9"/>
       <c r="B145" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>7</v>
@@ -5941,7 +6016,7 @@
         <v>8</v>
       </c>
       <c r="E145" s="8">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -5967,7 +6042,7 @@
     <row r="146">
       <c r="A146" s="9"/>
       <c r="B146" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>7</v>
@@ -5976,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="E146" s="8">
-        <v>170.0</v>
+        <v>169.0</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -6002,7 +6077,7 @@
     <row r="147">
       <c r="A147" s="9"/>
       <c r="B147" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>7</v>
@@ -6011,7 +6086,7 @@
         <v>8</v>
       </c>
       <c r="E147" s="8">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -6037,7 +6112,7 @@
     <row r="148">
       <c r="A148" s="9"/>
       <c r="B148" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>7</v>
@@ -6046,7 +6121,7 @@
         <v>8</v>
       </c>
       <c r="E148" s="8">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -6072,7 +6147,7 @@
     <row r="149">
       <c r="A149" s="9"/>
       <c r="B149" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>7</v>
@@ -6081,7 +6156,7 @@
         <v>8</v>
       </c>
       <c r="E149" s="8">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -6107,7 +6182,7 @@
     <row r="150">
       <c r="A150" s="9"/>
       <c r="B150" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>7</v>
@@ -6116,7 +6191,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="8">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -6142,7 +6217,7 @@
     <row r="151">
       <c r="A151" s="9"/>
       <c r="B151" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>7</v>
@@ -6151,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="E151" s="8">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -6177,7 +6252,7 @@
     <row r="152">
       <c r="A152" s="9"/>
       <c r="B152" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>7</v>
@@ -6186,7 +6261,7 @@
         <v>8</v>
       </c>
       <c r="E152" s="8">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -6212,7 +6287,7 @@
     <row r="153">
       <c r="A153" s="9"/>
       <c r="B153" s="8" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>7</v>
@@ -6221,7 +6296,7 @@
         <v>8</v>
       </c>
       <c r="E153" s="8">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -6247,7 +6322,7 @@
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>7</v>
@@ -6256,7 +6331,7 @@
         <v>8</v>
       </c>
       <c r="E154" s="8">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -6280,9 +6355,9 @@
       <c r="Y154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="11"/>
+      <c r="A155" s="9"/>
       <c r="B155" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>7</v>
@@ -6291,7 +6366,7 @@
         <v>8</v>
       </c>
       <c r="E155" s="8">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -6315,19 +6390,19 @@
       <c r="Y155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="A156" s="9"/>
       <c r="B156" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E156" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E156" s="8">
+        <v>179.0</v>
+      </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -6350,17 +6425,19 @@
       <c r="Y156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="9"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="8" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E157" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E157" s="8">
+        <v>221.0</v>
+      </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -6383,17 +6460,21 @@
       <c r="Y157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="9"/>
+      <c r="A158" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="B158" s="8" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E158" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E158" s="8">
+        <v>180.0</v>
+      </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -6418,15 +6499,17 @@
     <row r="159">
       <c r="A159" s="9"/>
       <c r="B159" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E159" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -6451,15 +6534,17 @@
     <row r="160">
       <c r="A160" s="9"/>
       <c r="B160" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E160" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E160" s="8">
+        <v>187.0</v>
+      </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -6484,15 +6569,17 @@
     <row r="161">
       <c r="A161" s="9"/>
       <c r="B161" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E161" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E161" s="8">
+        <v>188.0</v>
+      </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -6517,15 +6604,17 @@
     <row r="162">
       <c r="A162" s="9"/>
       <c r="B162" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E162" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E162" s="8">
+        <v>189.0</v>
+      </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -6550,15 +6639,17 @@
     <row r="163">
       <c r="A163" s="9"/>
       <c r="B163" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E163" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E163" s="8">
+        <v>190.0</v>
+      </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -6583,15 +6674,17 @@
     <row r="164">
       <c r="A164" s="9"/>
       <c r="B164" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E164" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E164" s="8">
+        <v>191.0</v>
+      </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -6616,15 +6709,17 @@
     <row r="165">
       <c r="A165" s="9"/>
       <c r="B165" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E165" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E165" s="8">
+        <v>192.0</v>
+      </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -6649,15 +6744,17 @@
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E166" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E166" s="8">
+        <v>193.0</v>
+      </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -6682,15 +6779,17 @@
     <row r="167">
       <c r="A167" s="9"/>
       <c r="B167" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E167" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E167" s="8">
+        <v>194.0</v>
+      </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -6715,15 +6814,17 @@
     <row r="168">
       <c r="A168" s="9"/>
       <c r="B168" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E168" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -6748,15 +6849,17 @@
     <row r="169">
       <c r="A169" s="9"/>
       <c r="B169" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E169" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E169" s="8">
+        <v>198.0</v>
+      </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -6781,15 +6884,17 @@
     <row r="170">
       <c r="A170" s="9"/>
       <c r="B170" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E170" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E170" s="8">
+        <v>199.0</v>
+      </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -6814,15 +6919,17 @@
     <row r="171">
       <c r="A171" s="9"/>
       <c r="B171" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E171" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E171" s="8">
+        <v>200.0</v>
+      </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -6847,15 +6954,17 @@
     <row r="172">
       <c r="A172" s="9"/>
       <c r="B172" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E172" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E172" s="8">
+        <v>201.0</v>
+      </c>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -6880,15 +6989,17 @@
     <row r="173">
       <c r="A173" s="9"/>
       <c r="B173" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E173" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E173" s="8">
+        <v>202.0</v>
+      </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -6913,15 +7024,17 @@
     <row r="174">
       <c r="A174" s="9"/>
       <c r="B174" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E174" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E174" s="8">
+        <v>203.0</v>
+      </c>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -6946,15 +7059,17 @@
     <row r="175">
       <c r="A175" s="9"/>
       <c r="B175" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E175" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E175" s="8">
+        <v>204.0</v>
+      </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -6979,15 +7094,17 @@
     <row r="176">
       <c r="A176" s="9"/>
       <c r="B176" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E176" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E176" s="8">
+        <v>205.0</v>
+      </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -7012,15 +7129,17 @@
     <row r="177">
       <c r="A177" s="9"/>
       <c r="B177" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E177" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E177" s="8">
+        <v>206.0</v>
+      </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
@@ -7045,15 +7164,17 @@
     <row r="178">
       <c r="A178" s="9"/>
       <c r="B178" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E178" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E178" s="8">
+        <v>207.0</v>
+      </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -7078,15 +7199,17 @@
     <row r="179">
       <c r="A179" s="9"/>
       <c r="B179" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E179" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E179" s="8">
+        <v>208.0</v>
+      </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
@@ -7111,15 +7234,17 @@
     <row r="180">
       <c r="A180" s="9"/>
       <c r="B180" s="8" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E180" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E180" s="8">
+        <v>209.0</v>
+      </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -7144,15 +7269,17 @@
     <row r="181">
       <c r="A181" s="9"/>
       <c r="B181" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E181" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E181" s="8">
+        <v>210.0</v>
+      </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -7177,15 +7304,17 @@
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E182" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E182" s="8">
+        <v>211.0</v>
+      </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -7208,17 +7337,19 @@
       <c r="Y182" s="6"/>
     </row>
     <row r="183">
-      <c r="A183" s="11"/>
+      <c r="A183" s="9"/>
       <c r="B183" s="8" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E183" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E183" s="8">
+        <v>212.0</v>
+      </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -7241,19 +7372,19 @@
       <c r="Y183" s="6"/>
     </row>
     <row r="184">
-      <c r="A184" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="A184" s="9"/>
       <c r="B184" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E184" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E184" s="8">
+        <v>213.0</v>
+      </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -7278,15 +7409,17 @@
     <row r="185">
       <c r="A185" s="9"/>
       <c r="B185" s="8" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E185" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E185" s="8">
+        <v>214.0</v>
+      </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -7311,15 +7444,17 @@
     <row r="186">
       <c r="A186" s="9"/>
       <c r="B186" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E186" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E186" s="8">
+        <v>215.0</v>
+      </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -7344,15 +7479,17 @@
     <row r="187">
       <c r="A187" s="9"/>
       <c r="B187" s="8" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E187" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E187" s="8">
+        <v>216.0</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -7375,17 +7512,19 @@
       <c r="Y187" s="6"/>
     </row>
     <row r="188">
-      <c r="A188" s="9"/>
+      <c r="A188" s="11"/>
       <c r="B188" s="8" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E188" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E188" s="8">
+        <v>217.0</v>
+      </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -7408,17 +7547,21 @@
       <c r="Y188" s="6"/>
     </row>
     <row r="189">
-      <c r="A189" s="9"/>
+      <c r="A189" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="B189" s="8" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E189" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E189" s="8">
+        <v>222.0</v>
+      </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -7443,15 +7586,17 @@
     <row r="190">
       <c r="A190" s="9"/>
       <c r="B190" s="8" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E190" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E190" s="8">
+        <v>224.0</v>
+      </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -7476,15 +7621,17 @@
     <row r="191">
       <c r="A191" s="9"/>
       <c r="B191" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E191" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -7509,15 +7656,17 @@
     <row r="192">
       <c r="A192" s="9"/>
       <c r="B192" s="8" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E192" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E192" s="8">
+        <v>229.0</v>
+      </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -7542,15 +7691,17 @@
     <row r="193">
       <c r="A193" s="9"/>
       <c r="B193" s="8" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E193" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
@@ -7575,15 +7726,17 @@
     <row r="194">
       <c r="A194" s="9"/>
       <c r="B194" s="8" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E194" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E194" s="8">
+        <v>233.0</v>
+      </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -7608,15 +7761,17 @@
     <row r="195">
       <c r="A195" s="9"/>
       <c r="B195" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E195" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E195" s="8">
+        <v>234.0</v>
+      </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
@@ -7641,15 +7796,17 @@
     <row r="196">
       <c r="A196" s="9"/>
       <c r="B196" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E196" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E196" s="8">
+        <v>235.0</v>
+      </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -7674,15 +7831,17 @@
     <row r="197">
       <c r="A197" s="9"/>
       <c r="B197" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E197" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E197" s="8">
+        <v>236.0</v>
+      </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -7707,15 +7866,17 @@
     <row r="198">
       <c r="A198" s="9"/>
       <c r="B198" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E198" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E198" s="8">
+        <v>237.0</v>
+      </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -7740,15 +7901,17 @@
     <row r="199">
       <c r="A199" s="9"/>
       <c r="B199" s="8" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E199" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E199" s="8">
+        <v>238.0</v>
+      </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -7773,15 +7936,17 @@
     <row r="200">
       <c r="A200" s="9"/>
       <c r="B200" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E200" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E200" s="8">
+        <v>239.0</v>
+      </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -7806,15 +7971,17 @@
     <row r="201">
       <c r="A201" s="9"/>
       <c r="B201" s="8" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E201" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E201" s="8">
+        <v>240.0</v>
+      </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -7839,15 +8006,17 @@
     <row r="202">
       <c r="A202" s="9"/>
       <c r="B202" s="8" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E202" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E202" s="8">
+        <v>241.0</v>
+      </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -7872,15 +8041,17 @@
     <row r="203">
       <c r="A203" s="9"/>
       <c r="B203" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E203" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E203" s="8">
+        <v>242.0</v>
+      </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -7905,15 +8076,17 @@
     <row r="204">
       <c r="A204" s="9"/>
       <c r="B204" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E204" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E204" s="8">
+        <v>243.0</v>
+      </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -7938,15 +8111,17 @@
     <row r="205">
       <c r="A205" s="9"/>
       <c r="B205" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E205" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E205" s="8">
+        <v>244.0</v>
+      </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -7971,15 +8146,17 @@
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E206" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E206" s="8">
+        <v>245.0</v>
+      </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -8004,15 +8181,17 @@
     <row r="207">
       <c r="A207" s="9"/>
       <c r="B207" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E207" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E207" s="8">
+        <v>246.0</v>
+      </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
@@ -8037,15 +8216,17 @@
     <row r="208">
       <c r="A208" s="9"/>
       <c r="B208" s="8" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E208" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E208" s="8">
+        <v>247.0</v>
+      </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -8070,15 +8251,17 @@
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="8" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E209" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E209" s="8">
+        <v>248.0</v>
+      </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
@@ -8103,15 +8286,17 @@
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E210" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E210" s="8">
+        <v>249.0</v>
+      </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
@@ -8134,17 +8319,19 @@
       <c r="Y210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="11"/>
+      <c r="A211" s="9"/>
       <c r="B211" s="8" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E211" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E211" s="8">
+        <v>250.0</v>
+      </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
@@ -8167,19 +8354,19 @@
       <c r="Y211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="A212" s="9"/>
       <c r="B212" s="8" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E212" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E212" s="8">
+        <v>251.0</v>
+      </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
@@ -8204,15 +8391,17 @@
     <row r="213">
       <c r="A213" s="9"/>
       <c r="B213" s="8" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E213" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E213" s="8">
+        <v>252.0</v>
+      </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
@@ -8235,17 +8424,19 @@
       <c r="Y213" s="6"/>
     </row>
     <row r="214">
-      <c r="A214" s="11"/>
+      <c r="A214" s="9"/>
       <c r="B214" s="8" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E214" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E214" s="8">
+        <v>253.0</v>
+      </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
@@ -8268,19 +8459,19 @@
       <c r="Y214" s="6"/>
     </row>
     <row r="215">
-      <c r="A215" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="A215" s="9"/>
       <c r="B215" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E215" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E215" s="8">
+        <v>254.0</v>
+      </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
@@ -8305,15 +8496,17 @@
     <row r="216">
       <c r="A216" s="9"/>
       <c r="B216" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E216" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E216" s="8">
+        <v>255.0</v>
+      </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
@@ -8338,15 +8531,17 @@
     <row r="217">
       <c r="A217" s="9"/>
       <c r="B217" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E217" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E217" s="8">
+        <v>256.0</v>
+      </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
@@ -8371,15 +8566,17 @@
     <row r="218">
       <c r="A218" s="9"/>
       <c r="B218" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E218" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E218" s="8">
+        <v>257.0</v>
+      </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
@@ -8404,15 +8601,17 @@
     <row r="219">
       <c r="A219" s="9"/>
       <c r="B219" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E219" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E219" s="8">
+        <v>258.0</v>
+      </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
@@ -8437,15 +8636,17 @@
     <row r="220">
       <c r="A220" s="9"/>
       <c r="B220" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E220" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E220" s="8">
+        <v>259.0</v>
+      </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
@@ -8468,17 +8669,19 @@
       <c r="Y220" s="6"/>
     </row>
     <row r="221">
-      <c r="A221" s="11"/>
+      <c r="A221" s="9"/>
       <c r="B221" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E221" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E221" s="8">
+        <v>260.0</v>
+      </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
@@ -8501,19 +8704,19 @@
       <c r="Y221" s="6"/>
     </row>
     <row r="222">
-      <c r="A222" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="A222" s="9"/>
       <c r="B222" s="8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E222" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E222" s="8">
+        <v>261.0</v>
+      </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
@@ -8538,15 +8741,17 @@
     <row r="223">
       <c r="A223" s="9"/>
       <c r="B223" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E223" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E223" s="8">
+        <v>262.0</v>
+      </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
@@ -8569,17 +8774,19 @@
       <c r="Y223" s="6"/>
     </row>
     <row r="224">
-      <c r="A224" s="9"/>
+      <c r="A224" s="11"/>
       <c r="B224" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E224" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E224" s="8">
+        <v>263.0</v>
+      </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
@@ -8602,15 +8809,17 @@
       <c r="Y224" s="6"/>
     </row>
     <row r="225">
-      <c r="A225" s="11"/>
+      <c r="A225" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="B225" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E225" s="16"/>
       <c r="F225" s="6"/>
@@ -8635,17 +8844,15 @@
       <c r="Y225" s="6"/>
     </row>
     <row r="226">
-      <c r="A226" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B226" s="13" t="s">
-        <v>149</v>
+      <c r="A226" s="9"/>
+      <c r="B226" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E226" s="16"/>
       <c r="F226" s="6"/>
@@ -8670,15 +8877,15 @@
       <c r="Y226" s="6"/>
     </row>
     <row r="227">
-      <c r="A227" s="9"/>
-      <c r="B227" s="13" t="s">
-        <v>150</v>
+      <c r="A227" s="11"/>
+      <c r="B227" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E227" s="16"/>
       <c r="F227" s="6"/>
@@ -8703,15 +8910,17 @@
       <c r="Y227" s="6"/>
     </row>
     <row r="228">
-      <c r="A228" s="9"/>
-      <c r="B228" s="13" t="s">
-        <v>151</v>
+      <c r="A228" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E228" s="16"/>
       <c r="F228" s="6"/>
@@ -8737,14 +8946,14 @@
     </row>
     <row r="229">
       <c r="A229" s="9"/>
-      <c r="B229" s="13" t="s">
-        <v>152</v>
+      <c r="B229" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E229" s="16"/>
       <c r="F229" s="6"/>
@@ -8769,15 +8978,15 @@
       <c r="Y229" s="6"/>
     </row>
     <row r="230">
-      <c r="A230" s="11"/>
-      <c r="B230" s="13" t="s">
-        <v>153</v>
+      <c r="A230" s="9"/>
+      <c r="B230" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E230" s="16"/>
       <c r="F230" s="6"/>
@@ -8802,17 +9011,15 @@
       <c r="Y230" s="6"/>
     </row>
     <row r="231">
-      <c r="A231" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>155</v>
+      <c r="A231" s="9"/>
+      <c r="B231" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E231" s="16"/>
       <c r="F231" s="6"/>
@@ -8837,11 +9044,17 @@
       <c r="Y231" s="6"/>
     </row>
     <row r="232">
-      <c r="A232" s="12"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
+      <c r="A232" s="9"/>
+      <c r="B232" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E232" s="16"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
@@ -8864,11 +9077,17 @@
       <c r="Y232" s="6"/>
     </row>
     <row r="233">
-      <c r="A233" s="12"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
+      <c r="A233" s="9"/>
+      <c r="B233" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E233" s="16"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
@@ -8891,11 +9110,17 @@
       <c r="Y233" s="6"/>
     </row>
     <row r="234">
-      <c r="A234" s="12"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
+      <c r="A234" s="11"/>
+      <c r="B234" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E234" s="16"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
@@ -8918,11 +9143,19 @@
       <c r="Y234" s="6"/>
     </row>
     <row r="235">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
+      <c r="A235" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E235" s="16"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
@@ -8945,11 +9178,17 @@
       <c r="Y235" s="6"/>
     </row>
     <row r="236">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
+      <c r="A236" s="9"/>
+      <c r="B236" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E236" s="16"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
@@ -8972,11 +9211,17 @@
       <c r="Y236" s="6"/>
     </row>
     <row r="237">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
+      <c r="A237" s="9"/>
+      <c r="B237" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E237" s="16"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
@@ -8999,11 +9244,17 @@
       <c r="Y237" s="6"/>
     </row>
     <row r="238">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
+      <c r="A238" s="11"/>
+      <c r="B238" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E238" s="16"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
@@ -9026,11 +9277,19 @@
       <c r="Y238" s="6"/>
     </row>
     <row r="239">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
+      <c r="A239" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E239" s="16"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
@@ -9053,11 +9312,17 @@
       <c r="Y239" s="6"/>
     </row>
     <row r="240">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
+      <c r="A240" s="9"/>
+      <c r="B240" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E240" s="16"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
@@ -9080,11 +9345,17 @@
       <c r="Y240" s="6"/>
     </row>
     <row r="241">
-      <c r="A241" s="6"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
+      <c r="A241" s="9"/>
+      <c r="B241" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E241" s="16"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
@@ -9107,11 +9378,17 @@
       <c r="Y241" s="6"/>
     </row>
     <row r="242">
-      <c r="A242" s="6"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
+      <c r="A242" s="9"/>
+      <c r="B242" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E242" s="16"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
@@ -9134,11 +9411,17 @@
       <c r="Y242" s="6"/>
     </row>
     <row r="243">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
+      <c r="A243" s="11"/>
+      <c r="B243" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E243" s="16"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
@@ -9161,11 +9444,19 @@
       <c r="Y243" s="6"/>
     </row>
     <row r="244">
-      <c r="A244" s="6"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
+      <c r="A244" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E244" s="16"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
@@ -9188,7 +9479,7 @@
       <c r="Y244" s="6"/>
     </row>
     <row r="245">
-      <c r="A245" s="6"/>
+      <c r="A245" s="12"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -9215,7 +9506,7 @@
       <c r="Y245" s="6"/>
     </row>
     <row r="246">
-      <c r="A246" s="6"/>
+      <c r="A246" s="12"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -9242,7 +9533,7 @@
       <c r="Y246" s="6"/>
     </row>
     <row r="247">
-      <c r="A247" s="6"/>
+      <c r="A247" s="12"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -30625,15 +30916,366 @@
       <c r="X1038" s="6"/>
       <c r="Y1038" s="6"/>
     </row>
+    <row r="1039">
+      <c r="A1039" s="6"/>
+      <c r="B1039" s="6"/>
+      <c r="C1039" s="6"/>
+      <c r="D1039" s="6"/>
+      <c r="E1039" s="6"/>
+      <c r="F1039" s="6"/>
+      <c r="G1039" s="6"/>
+      <c r="H1039" s="6"/>
+      <c r="I1039" s="6"/>
+      <c r="J1039" s="6"/>
+      <c r="K1039" s="6"/>
+      <c r="L1039" s="6"/>
+      <c r="M1039" s="6"/>
+      <c r="N1039" s="6"/>
+      <c r="O1039" s="6"/>
+      <c r="P1039" s="6"/>
+      <c r="Q1039" s="6"/>
+      <c r="R1039" s="6"/>
+      <c r="S1039" s="6"/>
+      <c r="T1039" s="6"/>
+      <c r="U1039" s="6"/>
+      <c r="V1039" s="6"/>
+      <c r="W1039" s="6"/>
+      <c r="X1039" s="6"/>
+      <c r="Y1039" s="6"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="6"/>
+      <c r="B1040" s="6"/>
+      <c r="C1040" s="6"/>
+      <c r="D1040" s="6"/>
+      <c r="E1040" s="6"/>
+      <c r="F1040" s="6"/>
+      <c r="G1040" s="6"/>
+      <c r="H1040" s="6"/>
+      <c r="I1040" s="6"/>
+      <c r="J1040" s="6"/>
+      <c r="K1040" s="6"/>
+      <c r="L1040" s="6"/>
+      <c r="M1040" s="6"/>
+      <c r="N1040" s="6"/>
+      <c r="O1040" s="6"/>
+      <c r="P1040" s="6"/>
+      <c r="Q1040" s="6"/>
+      <c r="R1040" s="6"/>
+      <c r="S1040" s="6"/>
+      <c r="T1040" s="6"/>
+      <c r="U1040" s="6"/>
+      <c r="V1040" s="6"/>
+      <c r="W1040" s="6"/>
+      <c r="X1040" s="6"/>
+      <c r="Y1040" s="6"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="6"/>
+      <c r="B1041" s="6"/>
+      <c r="C1041" s="6"/>
+      <c r="D1041" s="6"/>
+      <c r="E1041" s="6"/>
+      <c r="F1041" s="6"/>
+      <c r="G1041" s="6"/>
+      <c r="H1041" s="6"/>
+      <c r="I1041" s="6"/>
+      <c r="J1041" s="6"/>
+      <c r="K1041" s="6"/>
+      <c r="L1041" s="6"/>
+      <c r="M1041" s="6"/>
+      <c r="N1041" s="6"/>
+      <c r="O1041" s="6"/>
+      <c r="P1041" s="6"/>
+      <c r="Q1041" s="6"/>
+      <c r="R1041" s="6"/>
+      <c r="S1041" s="6"/>
+      <c r="T1041" s="6"/>
+      <c r="U1041" s="6"/>
+      <c r="V1041" s="6"/>
+      <c r="W1041" s="6"/>
+      <c r="X1041" s="6"/>
+      <c r="Y1041" s="6"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="6"/>
+      <c r="B1042" s="6"/>
+      <c r="C1042" s="6"/>
+      <c r="D1042" s="6"/>
+      <c r="E1042" s="6"/>
+      <c r="F1042" s="6"/>
+      <c r="G1042" s="6"/>
+      <c r="H1042" s="6"/>
+      <c r="I1042" s="6"/>
+      <c r="J1042" s="6"/>
+      <c r="K1042" s="6"/>
+      <c r="L1042" s="6"/>
+      <c r="M1042" s="6"/>
+      <c r="N1042" s="6"/>
+      <c r="O1042" s="6"/>
+      <c r="P1042" s="6"/>
+      <c r="Q1042" s="6"/>
+      <c r="R1042" s="6"/>
+      <c r="S1042" s="6"/>
+      <c r="T1042" s="6"/>
+      <c r="U1042" s="6"/>
+      <c r="V1042" s="6"/>
+      <c r="W1042" s="6"/>
+      <c r="X1042" s="6"/>
+      <c r="Y1042" s="6"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="6"/>
+      <c r="B1043" s="6"/>
+      <c r="C1043" s="6"/>
+      <c r="D1043" s="6"/>
+      <c r="E1043" s="6"/>
+      <c r="F1043" s="6"/>
+      <c r="G1043" s="6"/>
+      <c r="H1043" s="6"/>
+      <c r="I1043" s="6"/>
+      <c r="J1043" s="6"/>
+      <c r="K1043" s="6"/>
+      <c r="L1043" s="6"/>
+      <c r="M1043" s="6"/>
+      <c r="N1043" s="6"/>
+      <c r="O1043" s="6"/>
+      <c r="P1043" s="6"/>
+      <c r="Q1043" s="6"/>
+      <c r="R1043" s="6"/>
+      <c r="S1043" s="6"/>
+      <c r="T1043" s="6"/>
+      <c r="U1043" s="6"/>
+      <c r="V1043" s="6"/>
+      <c r="W1043" s="6"/>
+      <c r="X1043" s="6"/>
+      <c r="Y1043" s="6"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="6"/>
+      <c r="B1044" s="6"/>
+      <c r="C1044" s="6"/>
+      <c r="D1044" s="6"/>
+      <c r="E1044" s="6"/>
+      <c r="F1044" s="6"/>
+      <c r="G1044" s="6"/>
+      <c r="H1044" s="6"/>
+      <c r="I1044" s="6"/>
+      <c r="J1044" s="6"/>
+      <c r="K1044" s="6"/>
+      <c r="L1044" s="6"/>
+      <c r="M1044" s="6"/>
+      <c r="N1044" s="6"/>
+      <c r="O1044" s="6"/>
+      <c r="P1044" s="6"/>
+      <c r="Q1044" s="6"/>
+      <c r="R1044" s="6"/>
+      <c r="S1044" s="6"/>
+      <c r="T1044" s="6"/>
+      <c r="U1044" s="6"/>
+      <c r="V1044" s="6"/>
+      <c r="W1044" s="6"/>
+      <c r="X1044" s="6"/>
+      <c r="Y1044" s="6"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="6"/>
+      <c r="B1045" s="6"/>
+      <c r="C1045" s="6"/>
+      <c r="D1045" s="6"/>
+      <c r="E1045" s="6"/>
+      <c r="F1045" s="6"/>
+      <c r="G1045" s="6"/>
+      <c r="H1045" s="6"/>
+      <c r="I1045" s="6"/>
+      <c r="J1045" s="6"/>
+      <c r="K1045" s="6"/>
+      <c r="L1045" s="6"/>
+      <c r="M1045" s="6"/>
+      <c r="N1045" s="6"/>
+      <c r="O1045" s="6"/>
+      <c r="P1045" s="6"/>
+      <c r="Q1045" s="6"/>
+      <c r="R1045" s="6"/>
+      <c r="S1045" s="6"/>
+      <c r="T1045" s="6"/>
+      <c r="U1045" s="6"/>
+      <c r="V1045" s="6"/>
+      <c r="W1045" s="6"/>
+      <c r="X1045" s="6"/>
+      <c r="Y1045" s="6"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="6"/>
+      <c r="B1046" s="6"/>
+      <c r="C1046" s="6"/>
+      <c r="D1046" s="6"/>
+      <c r="E1046" s="6"/>
+      <c r="F1046" s="6"/>
+      <c r="G1046" s="6"/>
+      <c r="H1046" s="6"/>
+      <c r="I1046" s="6"/>
+      <c r="J1046" s="6"/>
+      <c r="K1046" s="6"/>
+      <c r="L1046" s="6"/>
+      <c r="M1046" s="6"/>
+      <c r="N1046" s="6"/>
+      <c r="O1046" s="6"/>
+      <c r="P1046" s="6"/>
+      <c r="Q1046" s="6"/>
+      <c r="R1046" s="6"/>
+      <c r="S1046" s="6"/>
+      <c r="T1046" s="6"/>
+      <c r="U1046" s="6"/>
+      <c r="V1046" s="6"/>
+      <c r="W1046" s="6"/>
+      <c r="X1046" s="6"/>
+      <c r="Y1046" s="6"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="6"/>
+      <c r="B1047" s="6"/>
+      <c r="C1047" s="6"/>
+      <c r="D1047" s="6"/>
+      <c r="E1047" s="6"/>
+      <c r="F1047" s="6"/>
+      <c r="G1047" s="6"/>
+      <c r="H1047" s="6"/>
+      <c r="I1047" s="6"/>
+      <c r="J1047" s="6"/>
+      <c r="K1047" s="6"/>
+      <c r="L1047" s="6"/>
+      <c r="M1047" s="6"/>
+      <c r="N1047" s="6"/>
+      <c r="O1047" s="6"/>
+      <c r="P1047" s="6"/>
+      <c r="Q1047" s="6"/>
+      <c r="R1047" s="6"/>
+      <c r="S1047" s="6"/>
+      <c r="T1047" s="6"/>
+      <c r="U1047" s="6"/>
+      <c r="V1047" s="6"/>
+      <c r="W1047" s="6"/>
+      <c r="X1047" s="6"/>
+      <c r="Y1047" s="6"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="6"/>
+      <c r="B1048" s="6"/>
+      <c r="C1048" s="6"/>
+      <c r="D1048" s="6"/>
+      <c r="E1048" s="6"/>
+      <c r="F1048" s="6"/>
+      <c r="G1048" s="6"/>
+      <c r="H1048" s="6"/>
+      <c r="I1048" s="6"/>
+      <c r="J1048" s="6"/>
+      <c r="K1048" s="6"/>
+      <c r="L1048" s="6"/>
+      <c r="M1048" s="6"/>
+      <c r="N1048" s="6"/>
+      <c r="O1048" s="6"/>
+      <c r="P1048" s="6"/>
+      <c r="Q1048" s="6"/>
+      <c r="R1048" s="6"/>
+      <c r="S1048" s="6"/>
+      <c r="T1048" s="6"/>
+      <c r="U1048" s="6"/>
+      <c r="V1048" s="6"/>
+      <c r="W1048" s="6"/>
+      <c r="X1048" s="6"/>
+      <c r="Y1048" s="6"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="6"/>
+      <c r="B1049" s="6"/>
+      <c r="C1049" s="6"/>
+      <c r="D1049" s="6"/>
+      <c r="E1049" s="6"/>
+      <c r="F1049" s="6"/>
+      <c r="G1049" s="6"/>
+      <c r="H1049" s="6"/>
+      <c r="I1049" s="6"/>
+      <c r="J1049" s="6"/>
+      <c r="K1049" s="6"/>
+      <c r="L1049" s="6"/>
+      <c r="M1049" s="6"/>
+      <c r="N1049" s="6"/>
+      <c r="O1049" s="6"/>
+      <c r="P1049" s="6"/>
+      <c r="Q1049" s="6"/>
+      <c r="R1049" s="6"/>
+      <c r="S1049" s="6"/>
+      <c r="T1049" s="6"/>
+      <c r="U1049" s="6"/>
+      <c r="V1049" s="6"/>
+      <c r="W1049" s="6"/>
+      <c r="X1049" s="6"/>
+      <c r="Y1049" s="6"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="6"/>
+      <c r="B1050" s="6"/>
+      <c r="C1050" s="6"/>
+      <c r="D1050" s="6"/>
+      <c r="E1050" s="6"/>
+      <c r="F1050" s="6"/>
+      <c r="G1050" s="6"/>
+      <c r="H1050" s="6"/>
+      <c r="I1050" s="6"/>
+      <c r="J1050" s="6"/>
+      <c r="K1050" s="6"/>
+      <c r="L1050" s="6"/>
+      <c r="M1050" s="6"/>
+      <c r="N1050" s="6"/>
+      <c r="O1050" s="6"/>
+      <c r="P1050" s="6"/>
+      <c r="Q1050" s="6"/>
+      <c r="R1050" s="6"/>
+      <c r="S1050" s="6"/>
+      <c r="T1050" s="6"/>
+      <c r="U1050" s="6"/>
+      <c r="V1050" s="6"/>
+      <c r="W1050" s="6"/>
+      <c r="X1050" s="6"/>
+      <c r="Y1050" s="6"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="6"/>
+      <c r="B1051" s="6"/>
+      <c r="C1051" s="6"/>
+      <c r="D1051" s="6"/>
+      <c r="E1051" s="6"/>
+      <c r="F1051" s="6"/>
+      <c r="G1051" s="6"/>
+      <c r="H1051" s="6"/>
+      <c r="I1051" s="6"/>
+      <c r="J1051" s="6"/>
+      <c r="K1051" s="6"/>
+      <c r="L1051" s="6"/>
+      <c r="M1051" s="6"/>
+      <c r="N1051" s="6"/>
+      <c r="O1051" s="6"/>
+      <c r="P1051" s="6"/>
+      <c r="Q1051" s="6"/>
+      <c r="R1051" s="6"/>
+      <c r="S1051" s="6"/>
+      <c r="T1051" s="6"/>
+      <c r="U1051" s="6"/>
+      <c r="V1051" s="6"/>
+      <c r="W1051" s="6"/>
+      <c r="X1051" s="6"/>
+      <c r="Y1051" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A129:A155"/>
-    <mergeCell ref="A156:A183"/>
-    <mergeCell ref="A184:A211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="A129:A157"/>
+    <mergeCell ref="A158:A188"/>
+    <mergeCell ref="A189:A224"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A34"/>
     <mergeCell ref="A35:A51"/>
@@ -30643,10 +31285,10 @@
     <mergeCell ref="A99:A128"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C231">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C244">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D231">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D244">
       <formula1>"Success,Failure, In progress"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="178">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -478,13 +478,10 @@
     <t>Поиск новости по фильтру "Help is needed".</t>
   </si>
   <si>
-    <t>Жесты в приложении</t>
+    <t>Кнопки навигации и жесты в приложении</t>
   </si>
   <si>
     <t>Использование жеста для обновления страницы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In progress</t>
   </si>
   <si>
     <t>Использование жеста "назад" для возврата к предыдыдущей странице.</t>
@@ -511,22 +508,16 @@
     <t>Проверка нескольких попыток ввода невалидных данных при авторизации.</t>
   </si>
   <si>
-    <t>Проверка повторного запроса на авторизацию при выходе из аккаунта.</t>
+    <t>Проверка запроса на авторизацию при выходе из аккаунта.</t>
   </si>
   <si>
-    <t>Проверка автоматического входа в аккаунт при выходе из приложения без выхода из аккаунта.</t>
+    <t>Проверка автоматической авторизации при входе в приложение.</t>
   </si>
   <si>
     <t>Работа приложения в фоне</t>
   </si>
   <si>
-    <t>Сворачивание приложения в фон при разрешенных фоновых процессах на устройстве.</t>
-  </si>
-  <si>
     <t>Вызов приложения из фона при разрешенных фоновых процессах на устройстве.</t>
-  </si>
-  <si>
-    <t>Сворачивание приложения в фон при запрещенных фоновых процессах на устройстве.</t>
   </si>
   <si>
     <t>Вызов приложения из фона при запрещенных фоновых процессах на устройстве.</t>
@@ -544,16 +535,16 @@
     <t>Запуск приложения при отсутствии интернет соединения.</t>
   </si>
   <si>
-    <t>Обновление главной страницы приложения при отутствии интернет соединения.</t>
+    <t>Проверка обработки ошибок при неработающем сервисе.</t>
   </si>
   <si>
-    <t>Обновление главной страницы приложения при восстановлении интернет соединения.</t>
+    <t>Запуск приложения с подменой ответа сервера при авторизации.</t>
   </si>
   <si>
-    <t>Работа приложения при ограниченных ресурсах системы.</t>
+    <t>Запуск приложения с подменой ответа сервера при загрузке заявок.</t>
   </si>
   <si>
-    <t>Запуск приложения при полной утилизации оперативной памяти устройства.</t>
+    <t>Запуск приложения с подменой ответа сервера при загрузке новостей.</t>
   </si>
 </sst>
 </file>
@@ -669,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -714,13 +705,10 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8819,9 +8807,11 @@
         <v>7</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E225" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E225" s="8">
+        <v>264.0</v>
+      </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
@@ -8846,15 +8836,17 @@
     <row r="226">
       <c r="A226" s="9"/>
       <c r="B226" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E226" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E226" s="8">
+        <v>265.0</v>
+      </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
@@ -8879,15 +8871,17 @@
     <row r="227">
       <c r="A227" s="11"/>
       <c r="B227" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E227" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E227" s="8">
+        <v>266.0</v>
+      </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
@@ -8911,18 +8905,20 @@
     </row>
     <row r="228">
       <c r="A228" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B228" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E228" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E228" s="8">
+        <v>267.0</v>
+      </c>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
@@ -8947,15 +8943,17 @@
     <row r="229">
       <c r="A229" s="9"/>
       <c r="B229" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E229" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E229" s="8">
+        <v>268.0</v>
+      </c>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
@@ -8980,15 +8978,17 @@
     <row r="230">
       <c r="A230" s="9"/>
       <c r="B230" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E230" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E230" s="8">
+        <v>269.0</v>
+      </c>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
@@ -9013,15 +9013,17 @@
     <row r="231">
       <c r="A231" s="9"/>
       <c r="B231" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E231" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E231" s="8">
+        <v>270.0</v>
+      </c>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
@@ -9046,15 +9048,17 @@
     <row r="232">
       <c r="A232" s="9"/>
       <c r="B232" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E232" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E232" s="8">
+        <v>271.0</v>
+      </c>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
@@ -9079,15 +9083,17 @@
     <row r="233">
       <c r="A233" s="9"/>
       <c r="B233" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E233" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E233" s="8">
+        <v>272.0</v>
+      </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
@@ -9112,15 +9118,17 @@
     <row r="234">
       <c r="A234" s="11"/>
       <c r="B234" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E234" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E234" s="8">
+        <v>273.0</v>
+      </c>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
@@ -9144,18 +9152,20 @@
     </row>
     <row r="235">
       <c r="A235" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B235" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E235" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E235" s="8">
+        <v>274.0</v>
+      </c>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
@@ -9178,17 +9188,19 @@
       <c r="Y235" s="6"/>
     </row>
     <row r="236">
-      <c r="A236" s="9"/>
+      <c r="A236" s="11"/>
       <c r="B236" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E236" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E236" s="8">
+        <v>275.0</v>
+      </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
@@ -9211,17 +9223,21 @@
       <c r="Y236" s="6"/>
     </row>
     <row r="237">
-      <c r="A237" s="9"/>
-      <c r="B237" s="8" t="s">
+      <c r="A237" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B237" s="13" t="s">
         <v>171</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E237" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E237" s="8">
+        <v>276.0</v>
+      </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
@@ -9244,17 +9260,19 @@
       <c r="Y237" s="6"/>
     </row>
     <row r="238">
-      <c r="A238" s="11"/>
-      <c r="B238" s="8" t="s">
+      <c r="A238" s="9"/>
+      <c r="B238" s="13" t="s">
         <v>172</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E238" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E238" s="8">
+        <v>277.0</v>
+      </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
@@ -9277,19 +9295,19 @@
       <c r="Y238" s="6"/>
     </row>
     <row r="239">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="11"/>
+      <c r="B239" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E239" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E239" s="8">
+        <v>278.0</v>
+      </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
@@ -9312,7 +9330,9 @@
       <c r="Y239" s="6"/>
     </row>
     <row r="240">
-      <c r="A240" s="9"/>
+      <c r="A240" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="B240" s="13" t="s">
         <v>175</v>
       </c>
@@ -9320,9 +9340,11 @@
         <v>7</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E240" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E240" s="8">
+        <v>279.0</v>
+      </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
@@ -9353,9 +9375,11 @@
         <v>7</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E241" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E241" s="8">
+        <v>280.0</v>
+      </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
@@ -9378,7 +9402,7 @@
       <c r="Y241" s="6"/>
     </row>
     <row r="242">
-      <c r="A242" s="9"/>
+      <c r="A242" s="11"/>
       <c r="B242" s="13" t="s">
         <v>177</v>
       </c>
@@ -9386,9 +9410,11 @@
         <v>7</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E242" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="E242" s="8">
+        <v>281.0</v>
+      </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
@@ -9411,17 +9437,11 @@
       <c r="Y242" s="6"/>
     </row>
     <row r="243">
-      <c r="A243" s="11"/>
-      <c r="B243" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E243" s="16"/>
+      <c r="A243" s="12"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
@@ -9444,19 +9464,11 @@
       <c r="Y243" s="6"/>
     </row>
     <row r="244">
-      <c r="A244" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E244" s="16"/>
+      <c r="A244" s="12"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
@@ -9506,7 +9518,7 @@
       <c r="Y245" s="6"/>
     </row>
     <row r="246">
-      <c r="A246" s="12"/>
+      <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -9533,7 +9545,7 @@
       <c r="Y246" s="6"/>
     </row>
     <row r="247">
-      <c r="A247" s="12"/>
+      <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -31213,69 +31225,16 @@
       <c r="X1049" s="6"/>
       <c r="Y1049" s="6"/>
     </row>
-    <row r="1050">
-      <c r="A1050" s="6"/>
-      <c r="B1050" s="6"/>
-      <c r="C1050" s="6"/>
-      <c r="D1050" s="6"/>
-      <c r="E1050" s="6"/>
-      <c r="F1050" s="6"/>
-      <c r="G1050" s="6"/>
-      <c r="H1050" s="6"/>
-      <c r="I1050" s="6"/>
-      <c r="J1050" s="6"/>
-      <c r="K1050" s="6"/>
-      <c r="L1050" s="6"/>
-      <c r="M1050" s="6"/>
-      <c r="N1050" s="6"/>
-      <c r="O1050" s="6"/>
-      <c r="P1050" s="6"/>
-      <c r="Q1050" s="6"/>
-      <c r="R1050" s="6"/>
-      <c r="S1050" s="6"/>
-      <c r="T1050" s="6"/>
-      <c r="U1050" s="6"/>
-      <c r="V1050" s="6"/>
-      <c r="W1050" s="6"/>
-      <c r="X1050" s="6"/>
-      <c r="Y1050" s="6"/>
-    </row>
-    <row r="1051">
-      <c r="A1051" s="6"/>
-      <c r="B1051" s="6"/>
-      <c r="C1051" s="6"/>
-      <c r="D1051" s="6"/>
-      <c r="E1051" s="6"/>
-      <c r="F1051" s="6"/>
-      <c r="G1051" s="6"/>
-      <c r="H1051" s="6"/>
-      <c r="I1051" s="6"/>
-      <c r="J1051" s="6"/>
-      <c r="K1051" s="6"/>
-      <c r="L1051" s="6"/>
-      <c r="M1051" s="6"/>
-      <c r="N1051" s="6"/>
-      <c r="O1051" s="6"/>
-      <c r="P1051" s="6"/>
-      <c r="Q1051" s="6"/>
-      <c r="R1051" s="6"/>
-      <c r="S1051" s="6"/>
-      <c r="T1051" s="6"/>
-      <c r="U1051" s="6"/>
-      <c r="V1051" s="6"/>
-      <c r="W1051" s="6"/>
-      <c r="X1051" s="6"/>
-      <c r="Y1051" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A239:A243"/>
+  <mergeCells count="15">
     <mergeCell ref="A129:A157"/>
     <mergeCell ref="A158:A188"/>
     <mergeCell ref="A189:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A240:A242"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A34"/>
     <mergeCell ref="A35:A51"/>
@@ -31285,10 +31244,10 @@
     <mergeCell ref="A99:A128"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C244">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C242">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D244">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D242">
       <formula1>"Success,Failure, In progress"</formula1>
     </dataValidation>
   </dataValidations>
